--- a/iselUssSyncV2/OutputWSLorientation/20220524_1250_D50L474W30Q12.0U0.31H49.6G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1250_D50L474W30Q12.0U0.31H49.6G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.022544658220580719</v>
+        <v>0.01127232911029036</v>
       </c>
       <c r="O2" s="0">
-        <v>0.57578818051753267</v>
+        <v>0.28789409025876633</v>
       </c>
       <c r="P2" s="0">
         <v>136.81127666666674</v>
@@ -356,10 +356,10 @@
         <v>1.3421186241000007</v>
       </c>
       <c r="R2" s="0">
-        <v>1.2675834811817766</v>
+        <v>2.5351669623635531</v>
       </c>
       <c r="S2" s="0">
-        <v>0.22810883183389713</v>
+        <v>1.2855700514058781</v>
       </c>
       <c r="T2" s="0">
         <v>0.028651438672384837</v>
@@ -383,16 +383,16 @@
         <v>150000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.0588009736831963</v>
+        <v>0.52940048684159813</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.8836767226851441</v>
+        <v>1.0439871577844255</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.3923116230898112</v>
+        <v>2.1961558115449056</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.0910470893851096</v>
+        <v>1.0455235446925548</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>10.275988345774955</v>
+        <v>3.2401429693293311</v>
       </c>
     </row>
   </sheetData>
